--- a/natmiOut/OldD7/LR-pairs_lrc2p/H2-T23-Klrd1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/H2-T23-Klrd1.xlsx
@@ -531,34 +531,34 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.6503235339417</v>
+        <v>13.36072166666666</v>
       </c>
       <c r="H2">
-        <v>12.6503235339417</v>
+        <v>40.082165</v>
       </c>
       <c r="I2">
-        <v>0.19377089313325</v>
+        <v>0.1827559288203559</v>
       </c>
       <c r="J2">
-        <v>0.19377089313325</v>
+        <v>0.1827559288203559</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.29881501874652</v>
+        <v>2.761807333333334</v>
       </c>
       <c r="N2">
-        <v>2.29881501874652</v>
+        <v>8.285422000000001</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>29.08075373182773</v>
+        <v>36.89973907762555</v>
       </c>
       <c r="R2">
-        <v>29.08075373182773</v>
+        <v>332.09765169863</v>
       </c>
       <c r="S2">
-        <v>0.19377089313325</v>
+        <v>0.1827559288203559</v>
       </c>
       <c r="T2">
-        <v>0.19377089313325</v>
+        <v>0.1827559288203559</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,34 +593,34 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.2659175869064</v>
+        <v>15.33382733333333</v>
       </c>
       <c r="H3">
-        <v>15.2659175869064</v>
+        <v>46.001482</v>
       </c>
       <c r="I3">
-        <v>0.2338351645613393</v>
+        <v>0.2097452462965232</v>
       </c>
       <c r="J3">
-        <v>0.2338351645613393</v>
+        <v>0.2097452462965232</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.29881501874652</v>
+        <v>2.761807333333334</v>
       </c>
       <c r="N3">
-        <v>2.29881501874652</v>
+        <v>8.285422000000001</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>35.09352062372707</v>
+        <v>42.34907677726711</v>
       </c>
       <c r="R3">
-        <v>35.09352062372707</v>
+        <v>381.141690995404</v>
       </c>
       <c r="S3">
-        <v>0.2338351645613393</v>
+        <v>0.2097452462965232</v>
       </c>
       <c r="T3">
-        <v>0.2338351645613393</v>
+        <v>0.2097452462965232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,34 +655,34 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.7714972672947</v>
+        <v>41.04065866666667</v>
       </c>
       <c r="H4">
-        <v>34.7714972672947</v>
+        <v>123.121976</v>
       </c>
       <c r="I4">
-        <v>0.5326112065818969</v>
+        <v>0.561378635162985</v>
       </c>
       <c r="J4">
-        <v>0.5326112065818969</v>
+        <v>0.561378635162985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.29881501874652</v>
+        <v>2.761807333333334</v>
       </c>
       <c r="N4">
-        <v>2.29881501874652</v>
+        <v>8.285422000000001</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>79.93324014236063</v>
+        <v>113.3463920704302</v>
       </c>
       <c r="R4">
-        <v>79.93324014236063</v>
+        <v>1020.117528633872</v>
       </c>
       <c r="S4">
-        <v>0.5326112065818969</v>
+        <v>0.561378635162985</v>
       </c>
       <c r="T4">
-        <v>0.5326112065818969</v>
+        <v>0.561378635162985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,34 +717,34 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.59721400789371</v>
+        <v>3.371704666666667</v>
       </c>
       <c r="H5">
-        <v>2.59721400789371</v>
+        <v>10.115114</v>
       </c>
       <c r="I5">
-        <v>0.03978273572351396</v>
+        <v>0.04612018972013576</v>
       </c>
       <c r="J5">
-        <v>0.03978273572351396</v>
+        <v>0.04612018972013576</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.29881501874652</v>
+        <v>2.761807333333334</v>
       </c>
       <c r="N5">
-        <v>2.29881501874652</v>
+        <v>8.285422000000001</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>5.970514568244903</v>
+        <v>9.311998674234223</v>
       </c>
       <c r="R5">
-        <v>5.970514568244903</v>
+        <v>83.807988068108</v>
       </c>
       <c r="S5">
-        <v>0.03978273572351396</v>
+        <v>0.04612018972013576</v>
       </c>
       <c r="T5">
-        <v>0.03978273572351396</v>
+        <v>0.04612018972013576</v>
       </c>
     </row>
   </sheetData>
